--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -70,7 +70,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>1500.0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
